--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adam9-Itga6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adam9-Itga6.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H2">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I2">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J2">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N2">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O2">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P2">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q2">
-        <v>576.4549038941823</v>
+        <v>887.2167884239049</v>
       </c>
       <c r="R2">
-        <v>576.4549038941823</v>
+        <v>7984.951095815145</v>
       </c>
       <c r="S2">
-        <v>0.01828245344054405</v>
+        <v>0.02484545310342387</v>
       </c>
       <c r="T2">
-        <v>0.01828245344054405</v>
+        <v>0.02484545310342387</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H3">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I3">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J3">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N3">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O3">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P3">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q3">
-        <v>6.996386057185656</v>
+        <v>10.509658567365</v>
       </c>
       <c r="R3">
-        <v>6.996386057185656</v>
+        <v>94.58692710628499</v>
       </c>
       <c r="S3">
-        <v>0.0002218926432553144</v>
+        <v>0.0002943105140428253</v>
       </c>
       <c r="T3">
-        <v>0.0002218926432553144</v>
+        <v>0.0002943105140428252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H4">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I4">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J4">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N4">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O4">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P4">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q4">
-        <v>179.767475976268</v>
+        <v>253.99276522554</v>
       </c>
       <c r="R4">
-        <v>179.767475976268</v>
+        <v>2285.93488702986</v>
       </c>
       <c r="S4">
-        <v>0.005701383555691893</v>
+        <v>0.007112765920751454</v>
       </c>
       <c r="T4">
-        <v>0.005701383555691893</v>
+        <v>0.007112765920751453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H5">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I5">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J5">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N5">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O5">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P5">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q5">
-        <v>248.3943655083539</v>
+        <v>340.360788144255</v>
       </c>
       <c r="R5">
-        <v>248.3943655083539</v>
+        <v>3063.247093298295</v>
       </c>
       <c r="S5">
-        <v>0.007877907519949875</v>
+        <v>0.009531399890555349</v>
       </c>
       <c r="T5">
-        <v>0.007877907519949875</v>
+        <v>0.009531399890555349</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H6">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I6">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J6">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N6">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O6">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P6">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q6">
-        <v>100.0444271584378</v>
+        <v>136.77304581423</v>
       </c>
       <c r="R6">
-        <v>100.0444271584378</v>
+        <v>1230.95741232807</v>
       </c>
       <c r="S6">
-        <v>0.003172941316231379</v>
+        <v>0.003830166809204099</v>
       </c>
       <c r="T6">
-        <v>0.003172941316231379</v>
+        <v>0.003830166809204099</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H7">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I7">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J7">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N7">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O7">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P7">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q7">
-        <v>20.3658678995126</v>
+        <v>31.260967545195</v>
       </c>
       <c r="R7">
-        <v>20.3658678995126</v>
+        <v>281.348707906755</v>
       </c>
       <c r="S7">
-        <v>0.0006459100774992429</v>
+        <v>0.0008754262917990464</v>
       </c>
       <c r="T7">
-        <v>0.0006459100774992429</v>
+        <v>0.0008754262917990461</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H8">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I8">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J8">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N8">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O8">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P8">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q8">
-        <v>5346.776268379644</v>
+        <v>6103.889270011776</v>
       </c>
       <c r="R8">
-        <v>5346.776268379644</v>
+        <v>54935.00343010598</v>
       </c>
       <c r="S8">
-        <v>0.1695747360692082</v>
+        <v>0.1709321741712926</v>
       </c>
       <c r="T8">
-        <v>0.1695747360692082</v>
+        <v>0.1709321741712925</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H9">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I9">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J9">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N9">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O9">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P9">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q9">
-        <v>64.89338659845865</v>
+        <v>72.30452917238566</v>
       </c>
       <c r="R9">
-        <v>64.89338659845865</v>
+        <v>650.7407625514709</v>
       </c>
       <c r="S9">
-        <v>0.002058114712999875</v>
+        <v>0.002024802519696378</v>
       </c>
       <c r="T9">
-        <v>0.002058114712999875</v>
+        <v>0.002024802519696378</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H10">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I10">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J10">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N10">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O10">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P10">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q10">
-        <v>1667.392310974003</v>
+        <v>1747.423780240791</v>
       </c>
       <c r="R10">
-        <v>1667.392310974003</v>
+        <v>15726.81402216711</v>
       </c>
       <c r="S10">
-        <v>0.0528818856194503</v>
+        <v>0.04893452891136753</v>
       </c>
       <c r="T10">
-        <v>0.0528818856194503</v>
+        <v>0.04893452891136752</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H11">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I11">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J11">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N11">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O11">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P11">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q11">
-        <v>2303.925406354218</v>
+        <v>2341.619984870987</v>
       </c>
       <c r="R11">
-        <v>2303.925406354218</v>
+        <v>21074.57986383888</v>
       </c>
       <c r="S11">
-        <v>0.07306973830495786</v>
+        <v>0.0655742883579824</v>
       </c>
       <c r="T11">
-        <v>0.07306973830495786</v>
+        <v>0.0655742883579824</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H12">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I12">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J12">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N12">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O12">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P12">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q12">
-        <v>927.9393154621572</v>
+        <v>940.973545209138</v>
       </c>
       <c r="R12">
-        <v>927.9393154621572</v>
+        <v>8468.761906882241</v>
       </c>
       <c r="S12">
-        <v>0.02942989506374537</v>
+        <v>0.02635084727216172</v>
       </c>
       <c r="T12">
-        <v>0.02942989506374537</v>
+        <v>0.02635084727216172</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H13">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I13">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J13">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N13">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O13">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P13">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q13">
-        <v>188.8989727287629</v>
+        <v>215.069740405017</v>
       </c>
       <c r="R13">
-        <v>188.8989727287629</v>
+        <v>1935.627663645153</v>
       </c>
       <c r="S13">
-        <v>0.005990991924173416</v>
+        <v>0.006022772809214825</v>
       </c>
       <c r="T13">
-        <v>0.005990991924173416</v>
+        <v>0.006022772809214823</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H14">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I14">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J14">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N14">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O14">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P14">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q14">
-        <v>3478.256363726181</v>
+        <v>4426.084082490097</v>
       </c>
       <c r="R14">
-        <v>3478.256363726181</v>
+        <v>39834.75674241088</v>
       </c>
       <c r="S14">
-        <v>0.1103140238629545</v>
+        <v>0.1239472313172423</v>
       </c>
       <c r="T14">
-        <v>0.1103140238629545</v>
+        <v>0.1239472313172423</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H15">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I15">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J15">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N15">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O15">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P15">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q15">
-        <v>42.21531322241689</v>
+        <v>52.42983801067867</v>
       </c>
       <c r="R15">
-        <v>42.21531322241689</v>
+        <v>471.868542096108</v>
       </c>
       <c r="S15">
-        <v>0.001338872292096065</v>
+        <v>0.001468235383404439</v>
       </c>
       <c r="T15">
-        <v>0.001338872292096065</v>
+        <v>0.001468235383404439</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H16">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I16">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J16">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N16">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O16">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P16">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q16">
-        <v>1084.69433269012</v>
+        <v>1267.101062446619</v>
       </c>
       <c r="R16">
-        <v>1084.69433269012</v>
+        <v>11403.90956201957</v>
       </c>
       <c r="S16">
-        <v>0.03440143105846386</v>
+        <v>0.0354836613047434</v>
       </c>
       <c r="T16">
-        <v>0.03440143105846386</v>
+        <v>0.0354836613047434</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H17">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I17">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J17">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N17">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O17">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P17">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q17">
-        <v>1498.780349870623</v>
+        <v>1697.967719237178</v>
       </c>
       <c r="R17">
-        <v>1498.780349870623</v>
+        <v>15281.7094731346</v>
       </c>
       <c r="S17">
-        <v>0.04753430282057581</v>
+        <v>0.04754957062340708</v>
       </c>
       <c r="T17">
-        <v>0.04753430282057581</v>
+        <v>0.04754957062340708</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H18">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I18">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J18">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N18">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O18">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P18">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q18">
-        <v>603.6554864368958</v>
+        <v>682.323654027624</v>
       </c>
       <c r="R18">
-        <v>603.6554864368958</v>
+        <v>6140.912886248616</v>
       </c>
       <c r="S18">
-        <v>0.01914512870019302</v>
+        <v>0.01910766406665461</v>
       </c>
       <c r="T18">
-        <v>0.01914512870019302</v>
+        <v>0.0191076640666546</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H19">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I19">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J19">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N19">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O19">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P19">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q19">
-        <v>122.8850845846736</v>
+        <v>155.952493979316</v>
       </c>
       <c r="R19">
-        <v>122.8850845846736</v>
+        <v>1403.572445813844</v>
       </c>
       <c r="S19">
-        <v>0.003897340142792886</v>
+        <v>0.004367264490574298</v>
       </c>
       <c r="T19">
-        <v>0.003897340142792886</v>
+        <v>0.004367264490574297</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H20">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I20">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J20">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N20">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O20">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P20">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q20">
-        <v>3543.683191614754</v>
+        <v>4031.473332483748</v>
       </c>
       <c r="R20">
-        <v>3543.683191614754</v>
+        <v>36283.25999235374</v>
       </c>
       <c r="S20">
-        <v>0.1123890568387428</v>
+        <v>0.1128966256351672</v>
       </c>
       <c r="T20">
-        <v>0.1123890568387428</v>
+        <v>0.1128966256351672</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H21">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I21">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J21">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N21">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O21">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P21">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q21">
-        <v>43.00939328542478</v>
+        <v>47.75541761682444</v>
       </c>
       <c r="R21">
-        <v>43.00939328542478</v>
+        <v>429.79875855142</v>
       </c>
       <c r="S21">
-        <v>0.001364056797738974</v>
+        <v>0.001337333788443069</v>
       </c>
       <c r="T21">
-        <v>0.001364056797738974</v>
+        <v>0.001337333788443069</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H22">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I22">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J22">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N22">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O22">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P22">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q22">
-        <v>1105.097690578497</v>
+        <v>1154.131744361591</v>
       </c>
       <c r="R22">
-        <v>1105.097690578497</v>
+        <v>10387.18569925432</v>
       </c>
       <c r="S22">
-        <v>0.03504853014306714</v>
+        <v>0.03232008963744727</v>
       </c>
       <c r="T22">
-        <v>0.03504853014306714</v>
+        <v>0.03232008963744727</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H23">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I23">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J23">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N23">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O23">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P23">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q23">
-        <v>1526.972764040092</v>
+        <v>1546.584170554616</v>
       </c>
       <c r="R23">
-        <v>1526.972764040092</v>
+        <v>13919.25753499154</v>
       </c>
       <c r="S23">
-        <v>0.04842843434057494</v>
+        <v>0.04331025402289049</v>
       </c>
       <c r="T23">
-        <v>0.04842843434057494</v>
+        <v>0.04331025402289049</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H24">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I24">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J24">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N24">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O24">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P24">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q24">
-        <v>615.0103894357045</v>
+        <v>621.49059169876</v>
       </c>
       <c r="R24">
-        <v>615.0103894357045</v>
+        <v>5593.41532528884</v>
       </c>
       <c r="S24">
-        <v>0.01950525311581551</v>
+        <v>0.01740410636018421</v>
       </c>
       <c r="T24">
-        <v>0.01950525311581551</v>
+        <v>0.01740410636018421</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H25">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I25">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J25">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N25">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O25">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P25">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q25">
-        <v>125.1965821968223</v>
+        <v>142.04843579434</v>
       </c>
       <c r="R25">
-        <v>125.1965821968223</v>
+        <v>1278.43592214906</v>
       </c>
       <c r="S25">
-        <v>0.003970650036050028</v>
+        <v>0.003977897844125038</v>
       </c>
       <c r="T25">
-        <v>0.003970650036050028</v>
+        <v>0.003977897844125037</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H26">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I26">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J26">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N26">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O26">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P26">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q26">
-        <v>1766.042589378286</v>
+        <v>2049.264535237847</v>
       </c>
       <c r="R26">
-        <v>1766.042589378286</v>
+        <v>18443.38081714062</v>
       </c>
       <c r="S26">
-        <v>0.05601061105770953</v>
+        <v>0.05738722099387835</v>
       </c>
       <c r="T26">
-        <v>0.05601061105770953</v>
+        <v>0.05738722099387834</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H27">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I27">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J27">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N27">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O27">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P27">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q27">
-        <v>21.43431457561236</v>
+        <v>24.27486817265844</v>
       </c>
       <c r="R27">
-        <v>21.43431457561236</v>
+        <v>218.473813553926</v>
       </c>
       <c r="S27">
-        <v>0.000679796208881835</v>
+        <v>0.0006797888708203933</v>
       </c>
       <c r="T27">
-        <v>0.000679796208881835</v>
+        <v>0.0006797888708203932</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H28">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I28">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J28">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N28">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O28">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P28">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q28">
-        <v>550.7404249915189</v>
+        <v>586.6642434802551</v>
       </c>
       <c r="R28">
-        <v>550.7404249915189</v>
+        <v>5279.978191322296</v>
       </c>
       <c r="S28">
-        <v>0.01746691043776981</v>
+        <v>0.01642883581445492</v>
       </c>
       <c r="T28">
-        <v>0.01746691043776981</v>
+        <v>0.01642883581445492</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H29">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I29">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J29">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N29">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O29">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P29">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q29">
-        <v>760.9875906786901</v>
+        <v>786.1542989607736</v>
       </c>
       <c r="R29">
-        <v>760.9875906786901</v>
+        <v>7075.388690646962</v>
       </c>
       <c r="S29">
-        <v>0.02413496719592285</v>
+        <v>0.02201531803921701</v>
       </c>
       <c r="T29">
-        <v>0.02413496719592285</v>
+        <v>0.022015318039217</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H30">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I30">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J30">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N30">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O30">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P30">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q30">
-        <v>306.4987703256451</v>
+        <v>315.913941012628</v>
       </c>
       <c r="R30">
-        <v>306.4987703256451</v>
+        <v>2843.225469113652</v>
       </c>
       <c r="S30">
-        <v>0.009720707483288639</v>
+        <v>0.008846794953114509</v>
       </c>
       <c r="T30">
-        <v>0.009720707483288639</v>
+        <v>0.008846794953114507</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H31">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I31">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J31">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N31">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O31">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P31">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q31">
-        <v>62.39341505678939</v>
+        <v>72.205567977802</v>
       </c>
       <c r="R31">
-        <v>62.39341505678939</v>
+        <v>649.850111800218</v>
       </c>
       <c r="S31">
-        <v>0.001978827308201176</v>
+        <v>0.0020220312289012</v>
       </c>
       <c r="T31">
-        <v>0.001978827308201176</v>
+        <v>0.002022031228901199</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H32">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I32">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J32">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>123.661412757762</v>
+        <v>140.5599936666667</v>
       </c>
       <c r="N32">
-        <v>123.661412757762</v>
+        <v>421.679981</v>
       </c>
       <c r="O32">
-        <v>0.5092252425195443</v>
+        <v>0.5344312385120821</v>
       </c>
       <c r="P32">
-        <v>0.5092252425195443</v>
+        <v>0.534431238512082</v>
       </c>
       <c r="Q32">
-        <v>1344.913350673728</v>
+        <v>1586.303021164571</v>
       </c>
       <c r="R32">
-        <v>1344.913350673728</v>
+        <v>14276.72719048114</v>
       </c>
       <c r="S32">
-        <v>0.0426543612503852</v>
+        <v>0.04442253329107771</v>
       </c>
       <c r="T32">
-        <v>0.0426543612503852</v>
+        <v>0.0444225332910777</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H33">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I33">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J33">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.50086846028307</v>
+        <v>1.665024333333333</v>
       </c>
       <c r="N33">
-        <v>1.50086846028307</v>
+        <v>4.995073</v>
       </c>
       <c r="O33">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696814</v>
       </c>
       <c r="P33">
-        <v>0.006180425151495844</v>
+        <v>0.006330684808696813</v>
       </c>
       <c r="Q33">
-        <v>16.32310342268125</v>
+        <v>18.79078862612067</v>
       </c>
       <c r="R33">
-        <v>16.32310342268125</v>
+        <v>169.117097635086</v>
       </c>
       <c r="S33">
-        <v>0.0005176924965237805</v>
+        <v>0.0005262137322897086</v>
       </c>
       <c r="T33">
-        <v>0.0005176924965237805</v>
+        <v>0.0005262137322897085</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H34">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I34">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J34">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>38.5638146140276</v>
+        <v>40.23956933333334</v>
       </c>
       <c r="N34">
-        <v>38.5638146140276</v>
+        <v>120.718708</v>
       </c>
       <c r="O34">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="P34">
-        <v>0.1588019044208625</v>
+        <v>0.152997181594965</v>
       </c>
       <c r="Q34">
-        <v>419.4112615299786</v>
+        <v>454.1274422308508</v>
       </c>
       <c r="R34">
-        <v>419.4112615299786</v>
+        <v>4087.146980077657</v>
       </c>
       <c r="S34">
-        <v>0.01330176360641949</v>
+        <v>0.01271730000620041</v>
       </c>
       <c r="T34">
-        <v>0.01330176360641949</v>
+        <v>0.01271730000620041</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H35">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I35">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J35">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>53.2856914779053</v>
+        <v>53.92268366666667</v>
       </c>
       <c r="N35">
-        <v>53.2856914779053</v>
+        <v>161.768051</v>
       </c>
       <c r="O35">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="P35">
-        <v>0.2194251105541794</v>
+        <v>0.2050225378083947</v>
       </c>
       <c r="Q35">
-        <v>579.523040132969</v>
+        <v>608.5495152524314</v>
       </c>
       <c r="R35">
-        <v>579.523040132969</v>
+        <v>5476.945637271883</v>
       </c>
       <c r="S35">
-        <v>0.01837976037219809</v>
+        <v>0.01704170687434237</v>
       </c>
       <c r="T35">
-        <v>0.01837976037219809</v>
+        <v>0.01704170687434236</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H36">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I36">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J36">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>21.4615837550832</v>
+        <v>21.668682</v>
       </c>
       <c r="N36">
-        <v>21.4615837550832</v>
+        <v>65.006046</v>
       </c>
       <c r="O36">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854792</v>
       </c>
       <c r="P36">
-        <v>0.08837664028587426</v>
+        <v>0.08238774245854791</v>
       </c>
       <c r="Q36">
-        <v>233.4112952061682</v>
+        <v>244.543947567108</v>
       </c>
       <c r="R36">
-        <v>233.4112952061682</v>
+        <v>2200.895528103972</v>
       </c>
       <c r="S36">
-        <v>0.007402714606600332</v>
+        <v>0.006848162997228766</v>
       </c>
       <c r="T36">
-        <v>0.007402714606600332</v>
+        <v>0.006848162997228765</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H37">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I37">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J37">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.3688968199913</v>
+        <v>4.952613</v>
       </c>
       <c r="N37">
-        <v>4.3688968199913</v>
+        <v>14.857839</v>
       </c>
       <c r="O37">
-        <v>0.01799067706804354</v>
+        <v>0.0188306148173136</v>
       </c>
       <c r="P37">
-        <v>0.01799067706804354</v>
+        <v>0.01883061481731359</v>
       </c>
       <c r="Q37">
-        <v>47.51512642373143</v>
+        <v>55.89317955712201</v>
       </c>
       <c r="R37">
-        <v>47.51512642373143</v>
+        <v>503.0386160140981</v>
       </c>
       <c r="S37">
-        <v>0.00150695757932679</v>
+        <v>0.001565222152699188</v>
       </c>
       <c r="T37">
-        <v>0.00150695757932679</v>
+        <v>0.001565222152699188</v>
       </c>
     </row>
   </sheetData>
